--- a/DURBAN BUSINESS FINAL ONLY GOOD SHEET.xlsx
+++ b/DURBAN BUSINESS FINAL ONLY GOOD SHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94a57afdd462cebb/DukeEngage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{4AAF3BA3-0D94-4926-BA5E-900CF8DC1D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41C1F88E-3227-417E-921D-AF529F0F7CC7}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{4AAF3BA3-0D94-4926-BA5E-900CF8DC1D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96BE8401-2832-4651-A9FA-7BC49C635BC4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7B4331D-16CD-4E02-B87E-C494ECDB5029}"/>
   </bookViews>
@@ -2048,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE71100-2182-41F6-B954-69D3FCAF4F93}">
   <dimension ref="A1:H3121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3087" workbookViewId="0">
-      <selection activeCell="A3096" sqref="A3096"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>532</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>532</v>
